--- a/ACS/Metadata and Documentation/ACSSummaryVars.xlsx
+++ b/ACS/Metadata and Documentation/ACSSummaryVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Repos\OCGeoDemographics\ACS\Metadata and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6962D05C-8580-4B35-87A4-28E89B0C5EB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0953F87-7BAE-4872-8FFC-B144DF243C20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{5EA4B9A1-9905-4F92-89A5-2E82A238B2C0}"/>
+    <workbookView xWindow="57480" yWindow="9120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EA4B9A1-9905-4F92-89A5-2E82A238B2C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1929,15 +1929,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0FCC7-27E2-418A-97EE-A8FB4F7AD2A3}">
   <dimension ref="A1:K519"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A502" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C516" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="65" customWidth="1"/>

--- a/ACS/Metadata and Documentation/ACSSummaryVars.xlsx
+++ b/ACS/Metadata and Documentation/ACSSummaryVars.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Repos\OCGeoDemographics\ACS\Metadata and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0953F87-7BAE-4872-8FFC-B144DF243C20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A83FBB-ED75-4EEE-A774-02881F01F486}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="9120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EA4B9A1-9905-4F92-89A5-2E82A238B2C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" activeTab="1" xr2:uid="{5EA4B9A1-9905-4F92-89A5-2E82A238B2C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SEX AND AGE" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="529">
   <si>
     <t>SOCIAL CHARACTERISTICS</t>
   </si>
@@ -1549,6 +1551,75 @@
   </si>
   <si>
     <t>Households by Presence of People 65 Years and Over, Household Size and Household Type: Households With One or More People 65 Years and Over: Households (Estimate)</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>18 years and over, Male</t>
+  </si>
+  <si>
+    <t>18 years and over, Female</t>
+  </si>
+  <si>
+    <t>65 years and over, Male</t>
+  </si>
+  <si>
+    <t>65 years and over, Female</t>
+  </si>
+  <si>
+    <t>65 years and over, Sex ratio (males per 100 females)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>(B01001e2 * 100)/B01001e26</t>
+  </si>
+  <si>
+    <t>B01001e3 + B01001e27</t>
+  </si>
+  <si>
+    <t>B01001e4 + B01001e28</t>
+  </si>
+  <si>
+    <t>B01001e5 + B01001e29</t>
+  </si>
+  <si>
+    <t>B01001e6 + B01001e7 + B01001e30 + B01001e31</t>
+  </si>
+  <si>
+    <t>B01001e8 + B01001e9 + B01001e10 + B01001e32 + B01001e33 + B01001e34</t>
+  </si>
+  <si>
+    <t>B01001e11 + B01001e12 + B01001e35 + B01001e36</t>
+  </si>
+  <si>
+    <t>B01001e13 + B01001e14 + B01001e37 + B01001e38</t>
+  </si>
+  <si>
+    <t>B01001e15 + B01001e16 + B01001e39 + B01001e40</t>
+  </si>
+  <si>
+    <t>B01001e17 + B01001e41</t>
+  </si>
+  <si>
+    <t>B01001e18 + B01001e19 + B01001e42 + B01001e43</t>
+  </si>
+  <si>
+    <t>B01001e20 + B01001e21 + B01001e22 + B01001e44 + B01001e45 + B01001e46</t>
+  </si>
+  <si>
+    <t>B01001e23 + B01001e24 + B01001e47 + B01001e48</t>
+  </si>
+  <si>
+    <t>B01001e25 + B01001e49</t>
+  </si>
+  <si>
+    <t>B01002e1</t>
   </si>
 </sst>
 </file>
@@ -1929,14 +2000,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0FCC7-27E2-418A-97EE-A8FB4F7AD2A3}">
   <dimension ref="A1:K519"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A502" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C516" sqref="C516"/>
+    <sheetView showGridLines="0" topLeftCell="A420" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E432" sqref="E432:I462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="8" width="4" customWidth="1"/>
@@ -10663,4 +10734,262 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8414727C-53B7-427A-972B-FE0D8F662E5B}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26EEFDF-8FB7-4DDA-8024-71CA3B45F9A3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>560</v>
+      </c>
+      <c r="B1">
+        <v>750</v>
+      </c>
+      <c r="C1">
+        <f>A1/B1 *100</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="D1">
+        <f>A1*100/B1</f>
+        <v>74.666666666666671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ACS/Metadata and Documentation/ACSSummaryVars.xlsx
+++ b/ACS/Metadata and Documentation/ACSSummaryVars.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Repos\OCGeoDemographics\ACS\Metadata and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A83FBB-ED75-4EEE-A774-02881F01F486}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C28F73-3AF2-4CA9-B959-F176C408D8E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" activeTab="1" xr2:uid="{5EA4B9A1-9905-4F92-89A5-2E82A238B2C0}"/>
+    <workbookView xWindow="57480" yWindow="9120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5EA4B9A1-9905-4F92-89A5-2E82A238B2C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SEX AND AGE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Demographic" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="650">
   <si>
     <t>SOCIAL CHARACTERISTICS</t>
   </si>
@@ -1620,6 +1621,369 @@
   </si>
   <si>
     <t>B01002e1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Male: Under 5 years</t>
+  </si>
+  <si>
+    <t>Male: 5 to 9 years</t>
+  </si>
+  <si>
+    <t>Male: 10 to 14 years</t>
+  </si>
+  <si>
+    <t>Male: 15 to 17 years</t>
+  </si>
+  <si>
+    <t>Male: 18 and 19 years</t>
+  </si>
+  <si>
+    <t>Male: 20 years</t>
+  </si>
+  <si>
+    <t>Male: 21 years</t>
+  </si>
+  <si>
+    <t>Male: 22 to 24 years</t>
+  </si>
+  <si>
+    <t>Male: 25 to 29 years</t>
+  </si>
+  <si>
+    <t>Male: 30 to 34 years</t>
+  </si>
+  <si>
+    <t>Male: 35 to 39 years</t>
+  </si>
+  <si>
+    <t>Male: 40 to 44 years</t>
+  </si>
+  <si>
+    <t>Male: 45 to 49 years</t>
+  </si>
+  <si>
+    <t>Male: 50 to 54 years</t>
+  </si>
+  <si>
+    <t>Male: 55 to 59 years</t>
+  </si>
+  <si>
+    <t>Male: 60 and 61 years</t>
+  </si>
+  <si>
+    <t>Male: 62 to 64 years</t>
+  </si>
+  <si>
+    <t>Male: 65 and 66 years</t>
+  </si>
+  <si>
+    <t>Male: 67 to 69 years</t>
+  </si>
+  <si>
+    <t>Male: 70 to 74 years</t>
+  </si>
+  <si>
+    <t>Male: 75 to 79 years</t>
+  </si>
+  <si>
+    <t>Male: 80 to 84 years</t>
+  </si>
+  <si>
+    <t>Male: 85 years and over</t>
+  </si>
+  <si>
+    <t>Female: Under 5 years</t>
+  </si>
+  <si>
+    <t>Female: 5 to 9 years</t>
+  </si>
+  <si>
+    <t>Female: 10 to 14 years</t>
+  </si>
+  <si>
+    <t>Female: 15 to 17 years</t>
+  </si>
+  <si>
+    <t>Female: 18 and 19 years</t>
+  </si>
+  <si>
+    <t>Female: 20 years</t>
+  </si>
+  <si>
+    <t>Female: 21 years</t>
+  </si>
+  <si>
+    <t>Female: 22 to 24 years</t>
+  </si>
+  <si>
+    <t>Female: 25 to 29 years</t>
+  </si>
+  <si>
+    <t>Female: 30 to 34 years</t>
+  </si>
+  <si>
+    <t>Female: 35 to 39 years</t>
+  </si>
+  <si>
+    <t>Female: 40 to 44 years</t>
+  </si>
+  <si>
+    <t>Female: 45 to 49 years</t>
+  </si>
+  <si>
+    <t>Female: 50 to 54 years</t>
+  </si>
+  <si>
+    <t>Female: 55 to 59 years</t>
+  </si>
+  <si>
+    <t>Female: 60 and 61 years</t>
+  </si>
+  <si>
+    <t>Female: 62 to 64 years</t>
+  </si>
+  <si>
+    <t>Female: 65 and 66 years</t>
+  </si>
+  <si>
+    <t>Female: 67 to 69 years</t>
+  </si>
+  <si>
+    <t>Female: 70 to 74 years</t>
+  </si>
+  <si>
+    <t>Female: 75 to 79 years</t>
+  </si>
+  <si>
+    <t>Female: 80 to 84 years</t>
+  </si>
+  <si>
+    <t>Female: 85 years and over</t>
+  </si>
+  <si>
+    <t>B01001e3</t>
+  </si>
+  <si>
+    <t>B01001e4</t>
+  </si>
+  <si>
+    <t>B01001e5</t>
+  </si>
+  <si>
+    <t>B01001e6</t>
+  </si>
+  <si>
+    <t>B01001e7</t>
+  </si>
+  <si>
+    <t>B01001e8</t>
+  </si>
+  <si>
+    <t>B01001e9</t>
+  </si>
+  <si>
+    <t>B01001e10</t>
+  </si>
+  <si>
+    <t>B01001e11</t>
+  </si>
+  <si>
+    <t>B01001e12</t>
+  </si>
+  <si>
+    <t>B01001e13</t>
+  </si>
+  <si>
+    <t>B01001e14</t>
+  </si>
+  <si>
+    <t>B01001e15</t>
+  </si>
+  <si>
+    <t>B01001e16</t>
+  </si>
+  <si>
+    <t>B01001e17</t>
+  </si>
+  <si>
+    <t>B01001e18</t>
+  </si>
+  <si>
+    <t>B01001e19</t>
+  </si>
+  <si>
+    <t>B01001e20</t>
+  </si>
+  <si>
+    <t>B01001e21</t>
+  </si>
+  <si>
+    <t>B01001e22</t>
+  </si>
+  <si>
+    <t>B01001e23</t>
+  </si>
+  <si>
+    <t>B01001e24</t>
+  </si>
+  <si>
+    <t>B01001e25</t>
+  </si>
+  <si>
+    <t>B01001e27</t>
+  </si>
+  <si>
+    <t>B01001e28</t>
+  </si>
+  <si>
+    <t>B01001e29</t>
+  </si>
+  <si>
+    <t>B01001e30</t>
+  </si>
+  <si>
+    <t>B01001e31</t>
+  </si>
+  <si>
+    <t>B01001e32</t>
+  </si>
+  <si>
+    <t>B01001e33</t>
+  </si>
+  <si>
+    <t>B01001e34</t>
+  </si>
+  <si>
+    <t>B01001e35</t>
+  </si>
+  <si>
+    <t>B01001e36</t>
+  </si>
+  <si>
+    <t>B01001e37</t>
+  </si>
+  <si>
+    <t>B01001e38</t>
+  </si>
+  <si>
+    <t>B01001e39</t>
+  </si>
+  <si>
+    <t>B01001e40</t>
+  </si>
+  <si>
+    <t>B01001e41</t>
+  </si>
+  <si>
+    <t>B01001e42</t>
+  </si>
+  <si>
+    <t>B01001e43</t>
+  </si>
+  <si>
+    <t>B01001e44</t>
+  </si>
+  <si>
+    <t>B01001e45</t>
+  </si>
+  <si>
+    <t>B01001e46</t>
+  </si>
+  <si>
+    <t>B01001e47</t>
+  </si>
+  <si>
+    <t>B01001e48</t>
+  </si>
+  <si>
+    <t>B01001e49</t>
+  </si>
+  <si>
+    <t>X01</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>Age and Sex</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>B02001e1</t>
+  </si>
+  <si>
+    <t>B02001e2</t>
+  </si>
+  <si>
+    <t>B02001e3</t>
+  </si>
+  <si>
+    <t>B02001e4</t>
+  </si>
+  <si>
+    <t>B02001e5</t>
+  </si>
+  <si>
+    <t>B02001e6</t>
+  </si>
+  <si>
+    <t>B02001e7</t>
+  </si>
+  <si>
+    <t>B02001e8</t>
+  </si>
+  <si>
+    <t>B02001e9</t>
+  </si>
+  <si>
+    <t>B02001e10</t>
+  </si>
+  <si>
+    <t>Two or more races: Two races including Some other race</t>
+  </si>
+  <si>
+    <t>Two or more races: Two races excluding Some other race, and three or more races</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Universe</t>
+  </si>
+  <si>
+    <t>Race alone, or combination with one or more other races</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>B02008e1</t>
+  </si>
+  <si>
+    <t>B02009e1</t>
+  </si>
+  <si>
+    <t>B02010e1</t>
+  </si>
+  <si>
+    <t>B02011e1</t>
+  </si>
+  <si>
+    <t>B02012e1</t>
+  </si>
+  <si>
+    <t>B02013e1</t>
   </si>
 </sst>
 </file>
@@ -1655,11 +2019,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2000,15 +2365,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0FCC7-27E2-418A-97EE-A8FB4F7AD2A3}">
   <dimension ref="A1:K519"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A420" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E432" sqref="E432:I462"/>
+    <sheetView showGridLines="0" topLeftCell="A409" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="65" customWidth="1"/>
@@ -10740,7 +11105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8414727C-53B7-427A-972B-FE0D8F662E5B}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -10992,4 +11357,1365 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65C6985-5575-4BD7-82D4-C05DFF329433}">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" t="s">
+        <v>582</v>
+      </c>
+      <c r="F10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E11" t="s">
+        <v>583</v>
+      </c>
+      <c r="F11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>622</v>
+      </c>
+      <c r="E12" t="s">
+        <v>584</v>
+      </c>
+      <c r="F12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>625</v>
+      </c>
+      <c r="B13" t="s">
+        <v>623</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E13" t="s">
+        <v>585</v>
+      </c>
+      <c r="F13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B14" t="s">
+        <v>623</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>622</v>
+      </c>
+      <c r="E14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>625</v>
+      </c>
+      <c r="B15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>622</v>
+      </c>
+      <c r="E15" t="s">
+        <v>587</v>
+      </c>
+      <c r="F15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>625</v>
+      </c>
+      <c r="B16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>622</v>
+      </c>
+      <c r="E16" t="s">
+        <v>588</v>
+      </c>
+      <c r="F16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" t="s">
+        <v>623</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E17" t="s">
+        <v>589</v>
+      </c>
+      <c r="F17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>622</v>
+      </c>
+      <c r="E18" t="s">
+        <v>590</v>
+      </c>
+      <c r="F18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>625</v>
+      </c>
+      <c r="B19" t="s">
+        <v>623</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" t="s">
+        <v>591</v>
+      </c>
+      <c r="F19" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>625</v>
+      </c>
+      <c r="B20" t="s">
+        <v>623</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>622</v>
+      </c>
+      <c r="E20" t="s">
+        <v>592</v>
+      </c>
+      <c r="F20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>625</v>
+      </c>
+      <c r="B21" t="s">
+        <v>623</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>622</v>
+      </c>
+      <c r="E21" t="s">
+        <v>593</v>
+      </c>
+      <c r="F21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>625</v>
+      </c>
+      <c r="B22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>622</v>
+      </c>
+      <c r="E22" t="s">
+        <v>594</v>
+      </c>
+      <c r="F22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>625</v>
+      </c>
+      <c r="B23" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>622</v>
+      </c>
+      <c r="E23" t="s">
+        <v>595</v>
+      </c>
+      <c r="F23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>625</v>
+      </c>
+      <c r="B24" t="s">
+        <v>623</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E24" t="s">
+        <v>596</v>
+      </c>
+      <c r="F24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>623</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>622</v>
+      </c>
+      <c r="E25" t="s">
+        <v>597</v>
+      </c>
+      <c r="F25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>625</v>
+      </c>
+      <c r="B26" t="s">
+        <v>623</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26" t="s">
+        <v>598</v>
+      </c>
+      <c r="F26" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>625</v>
+      </c>
+      <c r="B27" t="s">
+        <v>623</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>625</v>
+      </c>
+      <c r="B28" t="s">
+        <v>623</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>622</v>
+      </c>
+      <c r="E28" t="s">
+        <v>599</v>
+      </c>
+      <c r="F28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>625</v>
+      </c>
+      <c r="B29" t="s">
+        <v>623</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>622</v>
+      </c>
+      <c r="E29" t="s">
+        <v>600</v>
+      </c>
+      <c r="F29" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>625</v>
+      </c>
+      <c r="B30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>622</v>
+      </c>
+      <c r="E30" t="s">
+        <v>601</v>
+      </c>
+      <c r="F30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>625</v>
+      </c>
+      <c r="B31" t="s">
+        <v>623</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>622</v>
+      </c>
+      <c r="E31" t="s">
+        <v>602</v>
+      </c>
+      <c r="F31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>622</v>
+      </c>
+      <c r="E32" t="s">
+        <v>603</v>
+      </c>
+      <c r="F32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33" t="s">
+        <v>623</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>622</v>
+      </c>
+      <c r="E33" t="s">
+        <v>604</v>
+      </c>
+      <c r="F33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>625</v>
+      </c>
+      <c r="B34" t="s">
+        <v>623</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>622</v>
+      </c>
+      <c r="E34" t="s">
+        <v>605</v>
+      </c>
+      <c r="F34" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>625</v>
+      </c>
+      <c r="B35" t="s">
+        <v>623</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>622</v>
+      </c>
+      <c r="E35" t="s">
+        <v>606</v>
+      </c>
+      <c r="F35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>625</v>
+      </c>
+      <c r="B36" t="s">
+        <v>623</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>622</v>
+      </c>
+      <c r="E36" t="s">
+        <v>607</v>
+      </c>
+      <c r="F36" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>625</v>
+      </c>
+      <c r="B37" t="s">
+        <v>623</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>622</v>
+      </c>
+      <c r="E37" t="s">
+        <v>608</v>
+      </c>
+      <c r="F37" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>625</v>
+      </c>
+      <c r="B38" t="s">
+        <v>623</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E38" t="s">
+        <v>609</v>
+      </c>
+      <c r="F38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>625</v>
+      </c>
+      <c r="B39" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>622</v>
+      </c>
+      <c r="E39" t="s">
+        <v>610</v>
+      </c>
+      <c r="F39" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>625</v>
+      </c>
+      <c r="B40" t="s">
+        <v>623</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>622</v>
+      </c>
+      <c r="E40" t="s">
+        <v>611</v>
+      </c>
+      <c r="F40" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>625</v>
+      </c>
+      <c r="B41" t="s">
+        <v>623</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>622</v>
+      </c>
+      <c r="E41" t="s">
+        <v>612</v>
+      </c>
+      <c r="F41" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>625</v>
+      </c>
+      <c r="B42" t="s">
+        <v>623</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>622</v>
+      </c>
+      <c r="E42" t="s">
+        <v>613</v>
+      </c>
+      <c r="F42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>625</v>
+      </c>
+      <c r="B43" t="s">
+        <v>623</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>622</v>
+      </c>
+      <c r="E43" t="s">
+        <v>614</v>
+      </c>
+      <c r="F43" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" t="s">
+        <v>623</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>622</v>
+      </c>
+      <c r="E44" t="s">
+        <v>615</v>
+      </c>
+      <c r="F44" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>625</v>
+      </c>
+      <c r="B45" t="s">
+        <v>623</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>622</v>
+      </c>
+      <c r="E45" t="s">
+        <v>616</v>
+      </c>
+      <c r="F45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>625</v>
+      </c>
+      <c r="B46" t="s">
+        <v>623</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>622</v>
+      </c>
+      <c r="E46" t="s">
+        <v>617</v>
+      </c>
+      <c r="F46" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>625</v>
+      </c>
+      <c r="B47" t="s">
+        <v>623</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>622</v>
+      </c>
+      <c r="E47" t="s">
+        <v>618</v>
+      </c>
+      <c r="F47" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>625</v>
+      </c>
+      <c r="B48" t="s">
+        <v>623</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>622</v>
+      </c>
+      <c r="E48" t="s">
+        <v>619</v>
+      </c>
+      <c r="F48" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>625</v>
+      </c>
+      <c r="B49" t="s">
+        <v>623</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>622</v>
+      </c>
+      <c r="E49" t="s">
+        <v>620</v>
+      </c>
+      <c r="F49" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>625</v>
+      </c>
+      <c r="B50" t="s">
+        <v>623</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>622</v>
+      </c>
+      <c r="E50" t="s">
+        <v>621</v>
+      </c>
+      <c r="F50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>640</v>
+      </c>
+      <c r="B51" t="s">
+        <v>624</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>453</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>640</v>
+      </c>
+      <c r="B52" t="s">
+        <v>624</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>453</v>
+      </c>
+      <c r="E52" t="s">
+        <v>629</v>
+      </c>
+      <c r="F52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>640</v>
+      </c>
+      <c r="B53" t="s">
+        <v>624</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" t="s">
+        <v>453</v>
+      </c>
+      <c r="E53" t="s">
+        <v>630</v>
+      </c>
+      <c r="F53" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>640</v>
+      </c>
+      <c r="B54" t="s">
+        <v>624</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>453</v>
+      </c>
+      <c r="E54" t="s">
+        <v>631</v>
+      </c>
+      <c r="F54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>640</v>
+      </c>
+      <c r="B55" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" t="s">
+        <v>453</v>
+      </c>
+      <c r="E55" t="s">
+        <v>632</v>
+      </c>
+      <c r="F55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>640</v>
+      </c>
+      <c r="B56" t="s">
+        <v>624</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>453</v>
+      </c>
+      <c r="E56" t="s">
+        <v>633</v>
+      </c>
+      <c r="F56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>640</v>
+      </c>
+      <c r="B57" t="s">
+        <v>624</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" t="s">
+        <v>453</v>
+      </c>
+      <c r="E57" t="s">
+        <v>634</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>640</v>
+      </c>
+      <c r="B58" t="s">
+        <v>624</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>453</v>
+      </c>
+      <c r="E58" t="s">
+        <v>635</v>
+      </c>
+      <c r="F58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>640</v>
+      </c>
+      <c r="B59" t="s">
+        <v>624</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>453</v>
+      </c>
+      <c r="E59" t="s">
+        <v>636</v>
+      </c>
+      <c r="F59" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>640</v>
+      </c>
+      <c r="B60" t="s">
+        <v>624</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" t="s">
+        <v>453</v>
+      </c>
+      <c r="E60" t="s">
+        <v>637</v>
+      </c>
+      <c r="F60" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>642</v>
+      </c>
+      <c r="B61" t="s">
+        <v>643</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="s">
+        <v>453</v>
+      </c>
+      <c r="E61" t="s">
+        <v>628</v>
+      </c>
+      <c r="F61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>642</v>
+      </c>
+      <c r="B62" t="s">
+        <v>643</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" t="s">
+        <v>453</v>
+      </c>
+      <c r="E62" t="s">
+        <v>644</v>
+      </c>
+      <c r="F62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>642</v>
+      </c>
+      <c r="B63" t="s">
+        <v>643</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>453</v>
+      </c>
+      <c r="E63" t="s">
+        <v>645</v>
+      </c>
+      <c r="F63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>642</v>
+      </c>
+      <c r="B64" t="s">
+        <v>643</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>453</v>
+      </c>
+      <c r="E64" t="s">
+        <v>646</v>
+      </c>
+      <c r="F64" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>642</v>
+      </c>
+      <c r="B65" t="s">
+        <v>643</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" t="s">
+        <v>453</v>
+      </c>
+      <c r="E65" t="s">
+        <v>647</v>
+      </c>
+      <c r="F65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>642</v>
+      </c>
+      <c r="B66" t="s">
+        <v>643</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" t="s">
+        <v>453</v>
+      </c>
+      <c r="E66" t="s">
+        <v>648</v>
+      </c>
+      <c r="F66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>642</v>
+      </c>
+      <c r="B67" t="s">
+        <v>643</v>
+      </c>
+      <c r="C67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" t="s">
+        <v>453</v>
+      </c>
+      <c r="E67" t="s">
+        <v>649</v>
+      </c>
+      <c r="F67" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>